--- a/experiments/distance dimension analysis/_Distance dim analysis.xlsx
+++ b/experiments/distance dimension analysis/_Distance dim analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\poland\PW\Thesis\Projects\humiact-proj\experiments\Distance dimension analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\poland\PW\Thesis\Projects\humiact-proj\experiments\distance dimension analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3199F85-A984-41B7-ADC1-6FBBCEC54182}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2AFCCE-BADE-4838-A590-C2691423A802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1504,20 +1504,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$D$6:$D$102</c:f>
@@ -1851,20 +1837,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$I$6:$I$102</c:f>
@@ -2413,20 +2385,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$E$6:$E$102</c:f>
@@ -2760,20 +2718,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$J$6:$J$102</c:f>
@@ -3322,20 +3266,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$F$6:$F$102</c:f>
@@ -3669,20 +3599,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$K$6:$K$102</c:f>
@@ -4231,20 +4147,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$G$6:$G$102</c:f>
@@ -4578,20 +4480,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$L$6:$L$102</c:f>
@@ -5140,20 +5028,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$H$6:$H$102</c:f>
@@ -5487,20 +5361,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Spine_MaxBoxSizeVal!$M$6:$M$102</c:f>
@@ -5924,6 +5784,1948 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="641172720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Normalize</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>d distance feature distribution </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spine_MaxBoxSizeVal!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boxing-SM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spine_MaxBoxSizeVal!$I$6:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>0.246709783788571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12997900155660599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21697597434824301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12088522848098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18306710207371901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.105089600226215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20374032790404301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.172114133963329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26182587558648501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29365747051810098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.185264538080814</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.164688444110202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14599578235145499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.386031589053066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17761386636698001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17801694159529499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14374504292028101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19291826600711001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.148898522575098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.126451581477285</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.181528245460994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14926067854107899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.225511870308479</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.108542608681557</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30217080164218302</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.294087116672544</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25046045603498601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16305773242125701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.188384600873992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5874173055328096E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.16866832510322399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.158268171317066</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14224189791453001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.20780595902530799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.127220596802396</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18621098192993801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.179192805110957</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27914506638565301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.15522752588627001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.144108610704129</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.285556900715838</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.17138548362472</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.104496563813748</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19382557319782701</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.20245756639064</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25827225622178601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19400370376182899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.188663803234903</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.136754196835288</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.204204397942469</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.22496993453931899</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17961402467509699</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.184629195417783</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.23988015691772899</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.335136983680272</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.15496840519024699</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.30101906252342597</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.14978807672017799</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.17766490825843501</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.110585471069687</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.172544538475849</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.27385498777834</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.19014092376854</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.1884095929638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.21299808771262599</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.17968153578326601</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.150407369514829</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.21918832569996699</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.13508649991958299</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.180533577880332</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.158716397322817</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.137163777998207</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.17316307881246901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.20613553477323501</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.310248039701502</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.22190094231588101</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.213441831536655</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.11931987256583899</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.177500552525856</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.21779065201050701</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.157536672153227</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.17521089576017199</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.24936809284554301</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.27137288906415102</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.183421409727447</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.203325482001703</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.14268544703616701</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.16888819363254301</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.19765066013140201</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.28733473116494102</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.19492799275019801</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.25415252536556299</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.15920679209810101</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.15149108172533901</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.17459328638060501</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.109257972621167</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.111036293943896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2ACA-4AC0-9DF0-27593BD27B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spine_MaxBoxSizeVal!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facing-SM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spine_MaxBoxSizeVal!$J$6:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>0.36571531736643498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17312682691127601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14225744761218001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.157312232510046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.107250391949902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16992689609117601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15783339239945901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.111487720010037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.326883448178725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34720586786399799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.308217297121756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.121277911030706</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44511663202079699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16788486621679999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12049775124682501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7413759870617599E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24358661920008301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.128606815785341</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37832840429263198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.6995556083698994E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.103048685654943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29836691041477098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16841064681012499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31352413351189001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.8439041559898398E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.163347562081886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20153814522023999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.131956649754783</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18034971457262799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.169909093959798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.21172578045123999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20967681049733</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23729002715839301</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27157136686447603</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.12913297980225699</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.178372202231808</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17631096548804301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.153584450099752</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.119865110025272</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13137060228775399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28192084415612401</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.13271071101380599</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.119523250675137</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.102596892408302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.11805002494925899</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.119523250675137</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.18883855864729199</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.43747514039014601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.14805905615273701</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.10981995714048901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.14250121213854999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14467950740308899</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.104335820179193</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.16942585907852101</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.5063256562709993E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.41545694205282302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.30768023503640002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.111137342123749</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.154216148562591</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.16596428683367501</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.215229330374894</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.19157011851412301</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.25257544085617101</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.20726509086995201</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.4132517021186598E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.166972733632863</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.139721665233382</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.26246189446138402</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.4595344342083698E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.13267095140409099</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.243692872784216</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17441913377853599</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.160490013416351</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.200982193931276</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.42229676720777098</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.16347819547217299</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.89256964040889E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7710305213555199E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.122208554168014</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18553401183880799</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.117039090936241</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.21746924209632401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.158222662062518</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.19510874054327801</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.13799524440192301</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.120060164713769</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.9583520837502003E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.115741488748628</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.1874265638085706E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.11297546935530201</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.33211323760138101</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.15415447918216199</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.117323735138241</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.130747968979362</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.121096788800699</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.17369458573428401</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.104627141520323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2ACA-4AC0-9DF0-27593BD27B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spine_MaxBoxSizeVal!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hhold-SM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spine_MaxBoxSizeVal!$K$6:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>7.7250200318263296E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17042304249848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103484182996694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.146477164022284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.173544456986757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.100689625891476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16031348043017801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15120461691930301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4985884447486101E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.101305783251812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15838204026559699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16620094572909999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.175561035833428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17072268540805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34702931477785398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15702086221262401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.101116748455475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27885427639201399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17197200610565899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7045293383338403E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12158051369935299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14926100312194299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13743293832713799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12834676630281699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.104730044815251</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4667236709950494E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21438343656021899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19095013253704199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11001984690902999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25336788792236598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.100545730813068</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.8031921184866699E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.123688771266605</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.155240142692598</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33475195164305199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14511208655184801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7186161859843797E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.103795489341623</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.8967182044340995E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.111629329960267</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.147375961613506</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.130522128393496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.9602343713412507E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28786329140429101</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14212631489292499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.17709683181255501</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.113136434909763</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.3187114857873001E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.6346849937073103E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.8852367531748794E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.249437578343426</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.109239804749763</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.24127825939497399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.12806436424440101</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.12739462470534699</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.154026592812577</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.24702175879361099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.12652031446317799</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.7148302082513396E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.2935519807402306E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.21611805638928699</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.22576753882556799</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.185187284161241</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.20756804780093899</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.148073082559253</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.217332840657676</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.149893245385192</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15386953153368299</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.21983402538872501</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.16600268127001599</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.26559435290918898</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.244292405279745</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.19205865300701699</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.107542283451906</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.19288662828331701</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.19733153032570799</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.17058339510408699</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.15256558245024399</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14568707138584699</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.15950020451067201</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.7021309919692993E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12361183577328599</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23005098061472501</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.28093538909948301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.10591828378663</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.21644450904874901</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.160967941841686</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.10535444547184999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.197230649921706</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.172886864738338</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.231170457981202</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.8836290581015206E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.130711679279603</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.14690861165486899</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.155778930038035</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.16216642837672601</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.132564049613837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2ACA-4AC0-9DF0-27593BD27B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spine_MaxBoxSizeVal!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hshake-SM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spine_MaxBoxSizeVal!$L$6:$L$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>0.117180402036552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13632759794388299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9607885136447305E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11652551083467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6970577750041795E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.158393904023169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16365691530200099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15775617033706399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15171792076435101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16340495272438799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.154301253436949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15673688293531601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13049590515409801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.112547084457412</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.112829612325127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.136424037330339</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13194347790173599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.117035347887658</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.126057277521015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17196729837497099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.262256404436501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16666865781152601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13067489608051</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.157473823825865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.19448455765056899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16381490186327399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24663493843047599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15867182375095901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7905973557551499E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18093600395091899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15666373147299401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12693892473902299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14294854926262701</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15144575107831701</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13729166938034401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.16105383216581001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17642326141602299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.100588812865854</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.147681776945814</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.123668798140447</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14996522902009601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.13678211179076999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.13445833418872499</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.160733857280866</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14183846987537899</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.13051772705690201</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.16856012471433199</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.27080944231423199</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17752452181752801</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16421509670092499</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.6342129833324094E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.142982777382054</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.37927345850481597</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.35172748959938599</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.22924755011619299</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.15303221518002499</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.38048840495817998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.5153785157616804E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.12257391068919</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.3839293554891304E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.17644079538291299</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.21750122337454</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.164559172135744</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.17819455524840799</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.14399946796058399</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.377867381150292</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.28269217079697201</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.16210231430333899</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.13023370198887599</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.119341661845163</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.17733108675296999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.33992007429622501</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.13018186242379101</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.20836241923839899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.125235436466101</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.14918153660237399</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.23221129610166799</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.12624421620078299</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.34580412982122199</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.20952435866070901</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17355548356327</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.100448390790322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.12585917425364199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.17901448255038199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.8722880788869302E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.20265913197095101</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.114185558745674</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.130385376094828</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.2793053688165599E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.223662767191559</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.12435839416744</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.19895608142539301</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.25778163998984299</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.10187841914013</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.16992357016805401</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.19710205287360499</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.13478503176135001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2ACA-4AC0-9DF0-27593BD27B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spine_MaxBoxSizeVal!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XOXO-SM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spine_MaxBoxSizeVal!$M$6:$M$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>7.1760610721192802E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.135083964687637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2098144736966298E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.96820836973185E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4276043382316101E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6678078551723403E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.101566121831961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5591708727730997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6759713200459096E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3930676649193897E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.77764016852848E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8017407773498096E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10283322216193901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2418257242631099E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2875768905477301E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5896718656318801E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3136824049817302E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9922295307558202E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8458986304159103E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4532701864760001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7957538724914603E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6242774318570299E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8578443434676997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.1266818521277902E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.78043447470101E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.7112923649703796E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9469691588068002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7382578115124099E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.145659224235755</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0250357142621103E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.1929290854746501E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5268593622820499E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0815028174341801E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8729708711215099E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.5911867989102397E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9305208941743601E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2361017053050898E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7970564486833803E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.14047955561618E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.2298523464790798E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.0928173794504903E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0918861813883498E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.0698148315840798E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.90352909746806E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7217546607311998E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.2173920165533898E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2665880613112599E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.16964572589799801</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0528948706886803E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8520661470827897E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.3505410025714198E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8458986304159103E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.12724087609902801</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.4206375217168293E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.1842576972599202E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8708477786532103E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.4633764621978901E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8085659919252703E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.4195323018589597E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9699301102533901E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.4880176783696201E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.4300370910892397E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6670155831982002E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3921578027926502E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.08368408573037E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.00551654181702E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.4124804423377101E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.4441501384649005E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0986959237724403E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.09045023555404E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.9176024236059299E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.1263312878766199E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.9225651675711004E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.7425227933630999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.4954718380253698E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.6141939259747998E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.7288900131415298E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.146833329007097</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.3526306090541499E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.7794940368032306E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.3807339039062298E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.8682612079530007E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.60126735390438E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.105331874655184</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.2921590710393993E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.7243653904021403E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.5047887301572802E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.3924893666975402E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.12451886305363299</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.8424878440568701E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.22104917363589E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.116616608798865</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.56763516757487E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.5656199097195596E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.10614968953459</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.2708119450198201E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.1941758716428102E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2ACA-4AC0-9DF0-27593BD27B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="202562959"/>
+        <c:axId val="202575023"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="202562959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202575023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="202575023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202562959"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6243,6 +8045,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8824,6 +10666,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9557,6 +11915,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>185530</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>490330</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA260A1-6262-49F9-B020-3C65CD6FF73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13181,8 +15575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEFE467-8C97-4B21-98FD-96419E495EE1}">
   <dimension ref="D2:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="J91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R108" sqref="R108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
